--- a/src/16t/assets/LEG_1.xlsx
+++ b/src/16t/assets/LEG_1.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
-  <si>
-    <t>二级BOM 前支腿 10T，11˂S≤14米，6˂H0≤14m（图号：Z60332）</t>
-  </si>
-  <si>
-    <t>7020-01157</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+  <si>
+    <t>二级BOM 前支腿 2T，14˂S≤17米，4.5˂H0≤4.6m（图号：Z60532）</t>
+  </si>
+  <si>
+    <t>7020-01628</t>
   </si>
   <si>
     <t>前支腿</t>
@@ -31,7 +31,7 @@
     <t>下法兰</t>
   </si>
   <si>
-    <t>板 12×330×330</t>
+    <t>板 16×370×370</t>
   </si>
   <si>
     <t>件</t>
@@ -46,13 +46,13 @@
     <t>00</t>
   </si>
   <si>
-    <t>7020-01300</t>
+    <t>7020-01771</t>
   </si>
   <si>
     <t>左腹板</t>
   </si>
   <si>
-    <t>板 5×208×L1</t>
+    <t>板 6×216×L1</t>
   </si>
   <si>
     <t>是</t>
@@ -61,25 +61,25 @@
     <t>Q235B</t>
   </si>
   <si>
-    <t>7020-01301</t>
+    <t>7020-01772</t>
   </si>
   <si>
     <t>右腹板</t>
   </si>
   <si>
-    <t>板 5×208×L2</t>
-  </si>
-  <si>
-    <t>7020-01302</t>
+    <t>板 6×216×L2</t>
+  </si>
+  <si>
+    <t>7020-01773</t>
   </si>
   <si>
     <t>盖板</t>
   </si>
   <si>
-    <t>板 5×(上770，下270）×F</t>
-  </si>
-  <si>
-    <t>7020-01303</t>
+    <t>板 6×(上860，下280）×F</t>
+  </si>
+  <si>
+    <t>7020-01774</t>
   </si>
   <si>
     <t>加强筋</t>
@@ -88,25 +88,22 @@
     <t>板 5×50×E</t>
   </si>
   <si>
-    <t>```````````````````````````````````````````````````</t>
-  </si>
-  <si>
-    <t>7020-01304</t>
+    <t>7020-01775</t>
   </si>
   <si>
     <t>隔板（放样）</t>
   </si>
   <si>
-    <t>板 5×210×L3(总长)</t>
-  </si>
-  <si>
-    <t>7020-01305</t>
+    <t>板 5×218×L3(总长)</t>
+  </si>
+  <si>
+    <t>7020-01776</t>
   </si>
   <si>
     <t>上法兰</t>
   </si>
   <si>
-    <t>板 12×290×830</t>
+    <t>板 16×315×950</t>
   </si>
   <si>
     <t>7020-00107</t>
@@ -115,13 +112,31 @@
     <t>三角筋</t>
   </si>
   <si>
-    <t>板 5×50×100</t>
+    <t>板 8×55×100</t>
   </si>
   <si>
     <t>7020-00108</t>
   </si>
   <si>
-    <t>板 5×62×100</t>
+    <t>板 8×40×100</t>
+  </si>
+  <si>
+    <t>7020-00094</t>
+  </si>
+  <si>
+    <t>筋板</t>
+  </si>
+  <si>
+    <t>7020-00095</t>
+  </si>
+  <si>
+    <t>板 8×65×100</t>
+  </si>
+  <si>
+    <t>7020-00096</t>
+  </si>
+  <si>
+    <t>板 8×77×100</t>
   </si>
 </sst>
 </file>
@@ -165,21 +180,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +210,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,11 +238,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,29 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -255,6 +293,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -270,36 +315,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -328,18 +343,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,48 +451,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,7 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,73 +493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +564,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -564,16 +594,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +626,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,8 +635,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,21 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,130 +669,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,7 +1151,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -1144,10 +1159,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="13" width="8.88888888888889" style="1"/>
+    <col min="14" max="14" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="1:21">
@@ -1204,11 +1226,11 @@
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="11">
-        <v>10.6</v>
+        <v>12.36</v>
       </c>
       <c r="M2" s="11">
-        <f t="shared" ref="M2:M10" si="0">I2*L2</f>
-        <v>10.6</v>
+        <f t="shared" ref="M2:M13" si="0">I2*L2</f>
+        <v>12.36</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>7</v>
@@ -1258,11 +1280,11 @@
         <v>14</v>
       </c>
       <c r="L3" s="11">
-        <v>45.9</v>
+        <v>32.6</v>
       </c>
       <c r="M3" s="11">
         <f t="shared" si="0"/>
-        <v>45.9</v>
+        <v>32.6</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
@@ -1310,11 +1332,11 @@
         <v>14</v>
       </c>
       <c r="L4" s="11">
-        <v>46</v>
+        <v>32.9</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>32.9</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
@@ -1362,11 +1384,11 @@
         <v>14</v>
       </c>
       <c r="L5" s="11">
-        <v>103.25</v>
+        <v>130.85</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>206.5</v>
+        <v>261.7</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
@@ -1381,7 +1403,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:21">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1414,11 +1436,11 @@
         <v>14</v>
       </c>
       <c r="L6" s="11">
-        <v>22.8</v>
+        <v>16.8</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
@@ -1432,9 +1454,6 @@
       </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="AF6" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.6" spans="1:21">
       <c r="A7" s="4">
@@ -1447,14 +1466,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
@@ -1469,11 +1488,11 @@
         <v>14</v>
       </c>
       <c r="L7" s="11">
-        <v>20.8</v>
+        <v>15.2</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>20.8</v>
+        <v>15.2</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
@@ -1499,14 +1518,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4">
@@ -1517,11 +1536,11 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="11">
-        <v>16.48</v>
+        <v>21.43</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>16.48</v>
+        <v>21.43</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>7</v>
@@ -1549,29 +1568,29 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="11">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>7</v>
@@ -1599,14 +1618,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4">
@@ -1617,11 +1636,11 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="11">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>7</v>
@@ -1637,6 +1656,150 @@
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:19">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:19">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="11">
+        <v>0.28</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:19">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="11">
+        <v>0.29</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
